--- a/TransPowerCalculation/Impedance Cal/Fish and coil Impedance Measure.xlsx
+++ b/TransPowerCalculation/Impedance Cal/Fish and coil Impedance Measure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\WPIWork\MQP\AcousticLink\TransPowerCalculation\Impedance Cal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B741BE05-5139-4E40-97D5-D2E6A7FCD8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934FB1ED-5F5B-4BAE-96EE-6D23AA09DDF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="3000" windowWidth="33360" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fish Finder Impedance" sheetId="1" r:id="rId1"/>
@@ -2090,6 +2090,516 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fish Finder Impedance'!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Im{z}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fish Finder Impedance'!$A$18:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>76.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fish Finder Impedance'!$O$18:$O$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>-1226.7846023331392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1630.7130426919032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2126.6251230346443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3103.7004473606439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2838.915436278417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1476.3932625547864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1103.4323621894744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-428.35472056772767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.73565264058125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>311.97051863525235</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>642.60645963393711</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>821.45163098531566</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1146.8013781703983</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1199.0043613689768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1282.5176204415668</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1212.0415447717539</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>929.0677120603367</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>389.91985653231183</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>199.29394284917186</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>129.74503437802969</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.359368977974952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.619367126614272</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9927550301812271</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-16.505760978397827</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-43.524142180811346</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-69.847704752195384</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-93.797563578139886</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-140.88764877283285</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-184.4911264008166</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-223.14960442578322</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-298.21043123775394</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-379.28359058945097</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-516.00517130715104</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-621.84309330496149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-713.72174740962021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DE4-4484-B9DB-AD207EA93605}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="829371024"/>
+        <c:axId val="533244208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="829371024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533244208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="533244208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="829371024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
@@ -2778,6 +3288,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3849,6 +4399,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4017,6 +5083,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>401053</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>80211</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>118310</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA7D09B-85FC-42FE-B36D-8E87C6180071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4509,8 +5611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A4" zoomScale="95" workbookViewId="0">
+      <selection activeCell="O18" activeCellId="3" sqref="A4 A18:A52 O4 O18:O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6344,15 +7446,15 @@
         <v>5.1252698699603361E-2</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I5:I18" si="0">D6/G6</f>
+        <f t="shared" ref="I6:I18" si="0">D6/G6</f>
         <v>121.02777331504701</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" ref="J5:J19" si="1">COS(F6/180*3.14159)*I6</f>
+        <f t="shared" ref="J6:J19" si="1">COS(F6/180*3.14159)*I6</f>
         <v>16.006842147035719</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K5:K19" si="2">SIN(F6/180*3.14159)*I6</f>
+        <f t="shared" ref="K6:K19" si="2">SIN(F6/180*3.14159)*I6</f>
         <v>119.96459026762142</v>
       </c>
     </row>
@@ -6374,7 +7476,7 @@
         <v>81.5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G56" si="3">E7/$A$3</f>
+        <f t="shared" ref="G7:G54" si="3">E7/$A$3</f>
         <v>5.2136365918562036E-2</v>
       </c>
       <c r="I7" s="1">
@@ -7470,7 +8572,7 @@
         <v>40.011830357142856</v>
       </c>
       <c r="J39" s="1">
-        <f>COS(F39/180*3.14159)*I39</f>
+        <f t="shared" ref="J39:J54" si="7">COS(F39/180*3.14159)*I39</f>
         <v>13.356262623642214</v>
       </c>
       <c r="K39" s="1">
@@ -7504,7 +8606,7 @@
         <v>39.958481249999998</v>
       </c>
       <c r="J40" s="1">
-        <f>COS(F40/180*3.14159)*I40</f>
+        <f t="shared" si="7"/>
         <v>13.338454273477359</v>
       </c>
       <c r="K40" s="1">
@@ -7538,7 +8640,7 @@
         <v>39.922915178571429</v>
       </c>
       <c r="J41" s="1">
-        <f>COS(F41/180*3.14159)*I41</f>
+        <f t="shared" si="7"/>
         <v>13.588982705484433</v>
       </c>
       <c r="K41" s="1">
@@ -7572,7 +8674,7 @@
         <v>39.833999999999996</v>
       </c>
       <c r="J42" s="1">
-        <f>COS(F42/180*3.14159)*I42</f>
+        <f t="shared" si="7"/>
         <v>13.558717710594712</v>
       </c>
       <c r="K42" s="1">
@@ -7606,7 +8708,7 @@
         <v>39.834000000000003</v>
       </c>
       <c r="J43" s="1">
-        <f>COS(F43/180*3.14159)*I43</f>
+        <f t="shared" si="7"/>
         <v>13.558717710594713</v>
       </c>
       <c r="K43" s="1">
@@ -7640,7 +8742,7 @@
         <v>39.780650892857146</v>
       </c>
       <c r="J44" s="1">
-        <f>COS(F44/180*3.14159)*I44</f>
+        <f t="shared" si="7"/>
         <v>13.409907607569158</v>
       </c>
       <c r="K44" s="1">
@@ -7674,7 +8776,7 @@
         <v>39.300508928571432</v>
       </c>
       <c r="J45" s="1">
-        <f>COS(F45/180*3.14159)*I45</f>
+        <f t="shared" si="7"/>
         <v>13.118817954777466</v>
       </c>
       <c r="K45" s="1">
@@ -7708,7 +8810,7 @@
         <v>39.567254464285718</v>
       </c>
       <c r="J46" s="1">
-        <f>COS(F46/180*3.14159)*I46</f>
+        <f t="shared" si="7"/>
         <v>13.467922725925552</v>
       </c>
       <c r="K46" s="1">
@@ -7742,7 +8844,7 @@
         <v>39.478656556645845</v>
       </c>
       <c r="J47" s="1">
-        <f>COS(F47/180*3.14159)*I47</f>
+        <f t="shared" si="7"/>
         <v>13.696591481607411</v>
       </c>
       <c r="K47" s="1">
@@ -7776,7 +8878,7 @@
         <v>39.336075000000001</v>
       </c>
       <c r="J48" s="1">
-        <f>COS(F48/180*3.14159)*I48</f>
+        <f t="shared" si="7"/>
         <v>13.356951224712896</v>
       </c>
       <c r="K48" s="1">
@@ -7806,11 +8908,11 @@
         <v>5.6233368479188632E-2</v>
       </c>
       <c r="I49" s="1">
-        <f>D49/G49</f>
+        <f t="shared" ref="I49:I54" si="8">D49/G49</f>
         <v>39.122678571428573</v>
       </c>
       <c r="J49" s="1">
-        <f>COS(F49/180*3.14159)*I49</f>
+        <f t="shared" si="7"/>
         <v>13.573089684301548</v>
       </c>
       <c r="K49" s="1">
@@ -7840,11 +8942,11 @@
         <v>5.6333785208615761E-2</v>
       </c>
       <c r="I50" s="1">
-        <f>D50/G50</f>
+        <f t="shared" si="8"/>
         <v>38.609157754010688</v>
       </c>
       <c r="J50" s="1">
-        <f>COS(F50/180*3.14159)*I50</f>
+        <f t="shared" si="7"/>
         <v>13.521249082715354</v>
       </c>
       <c r="K50" s="1">
@@ -7874,11 +8976,11 @@
         <v>5.6333785208615761E-2</v>
       </c>
       <c r="I51" s="1">
-        <f>D51/G51</f>
+        <f t="shared" si="8"/>
         <v>38.183125668449193</v>
       </c>
       <c r="J51" s="1">
-        <f>COS(F51/180*3.14159)*I51</f>
+        <f t="shared" si="7"/>
         <v>13.559130185456235</v>
       </c>
       <c r="K51" s="1">
@@ -7908,11 +9010,11 @@
         <v>5.6358889390972534E-2</v>
       </c>
       <c r="I52" s="1">
-        <f>D52/G52</f>
+        <f t="shared" si="8"/>
         <v>37.722531848552336</v>
       </c>
       <c r="J52" s="1">
-        <f>COS(F52/180*3.14159)*I52</f>
+        <f t="shared" si="7"/>
         <v>13.518582213297829</v>
       </c>
       <c r="K52" s="1">
@@ -7942,11 +9044,11 @@
         <v>5.6383993573329322E-2</v>
       </c>
       <c r="I53" s="1">
-        <f>D53/G53</f>
+        <f t="shared" si="8"/>
         <v>37.262348174532498</v>
       </c>
       <c r="J53" s="1">
-        <f>COS(F53/180*3.14159)*I53</f>
+        <f t="shared" si="7"/>
         <v>13.535628985625804</v>
       </c>
       <c r="K53" s="1">
@@ -7976,11 +9078,11 @@
         <v>5.6383993573329322E-2</v>
       </c>
       <c r="I54" s="1">
-        <f>D54/G54</f>
+        <f t="shared" si="8"/>
         <v>36.872166518254673</v>
       </c>
       <c r="J54" s="1">
-        <f>COS(F54/180*3.14159)*I54</f>
+        <f t="shared" si="7"/>
         <v>13.393894650697787</v>
       </c>
       <c r="K54" s="1">
@@ -8062,8 +9164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E194F26-A82F-4BD3-B7A1-F84F0CE9214F}">
   <dimension ref="B9:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9558,7 +10660,7 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" ht="60">
+    <row r="3" spans="2:22" ht="45">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>

--- a/TransPowerCalculation/Impedance Cal/Fish and coil Impedance Measure.xlsx
+++ b/TransPowerCalculation/Impedance Cal/Fish and coil Impedance Measure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\WPIWork\MQP\AcousticLink\TransPowerCalculation\Impedance Cal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934FB1ED-5F5B-4BAE-96EE-6D23AA09DDF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766D8692-1E52-48BC-A393-16CD952D6A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
     <numFmt numFmtId="164" formatCode="0.000_ "/>
     <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +162,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +188,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,12 +202,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -228,10 +256,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -520,9 +555,6 @@
                 <c:pt idx="53">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>60</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -678,9 +710,6 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>7.0629999999999997</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7.609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,9 +927,6 @@
                 <c:pt idx="53">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>60</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1056,9 +1082,6 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>6.391</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.7869999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,9 +1299,6 @@
                 <c:pt idx="53">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>60</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1433,9 +1453,6 @@
                   <c:v>-87.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-88.1</c:v>
-                </c:pt>
-                <c:pt idx="54">
                   <c:v>-88.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1654,9 +1671,6 @@
                 <c:pt idx="53">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>60</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1812,9 +1826,6 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>6.391E-3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.7869999999999996E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5044,15 +5055,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>125329</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>70184</xdr:rowOff>
+      <xdr:colOff>205539</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>350129</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>40105</xdr:rowOff>
+      <xdr:colOff>430339</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>130342</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5075,8 +5086,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4917908" y="3754856"/>
-          <a:ext cx="4104984" cy="2777289"/>
+          <a:off x="4687302" y="6256421"/>
+          <a:ext cx="3894432" cy="3017921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5609,10 +5620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:O59"/>
+  <dimension ref="A3:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="95" workbookViewId="0">
-      <selection activeCell="O18" activeCellId="3" sqref="A4 A18:A52 O4 O18:O52"/>
+    <sheetView topLeftCell="A10" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60:P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7314,34 +7325,40 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="2">
-        <v>60</v>
-      </c>
-      <c r="B59" s="2">
-        <v>7.609</v>
-      </c>
-      <c r="C59" s="2">
-        <v>5.7869999999999999</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="4"/>
-        <v>5.7869999999999996E-3</v>
-      </c>
-      <c r="E59" s="2">
-        <v>-88.1</v>
-      </c>
-      <c r="M59" s="3">
-        <f t="shared" si="0"/>
-        <v>1314.843614999136</v>
-      </c>
-      <c r="N59" s="3">
-        <f t="shared" si="1"/>
-        <v>43.595581368287114</v>
-      </c>
-      <c r="O59" s="3">
-        <f t="shared" si="2"/>
-        <v>-1314.1206783203577</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9165,7 +9182,7 @@
   <dimension ref="B9:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9422,40 +9439,40 @@
         <v>7.6990400614892776E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="1">
+    <row r="18" spans="2:18" s="14" customFormat="1">
+      <c r="B18" s="14">
         <f>'Fish Finder Impedance'!A22</f>
         <v>81.5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="14">
         <f>'Fish Finder Impedance'!N22</f>
         <v>3411.0062768346447</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="14">
         <f>'Fish Finder Impedance'!O22</f>
         <v>-2838.915436278417</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="14">
         <f>'Transformer Impedance '!J22</f>
         <v>13.066123526105031</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="14">
         <f>'Transformer Impedance '!K22</f>
         <v>39.975711704409001</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="15">
         <f t="shared" si="0"/>
         <v>2878.8911479828262</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="14">
         <f t="shared" si="1"/>
         <v>5.621960206441325</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="15">
         <f t="shared" si="2"/>
         <v>39.420616897370621</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="14">
         <f t="shared" si="3"/>
         <v>7.6981423790778269E-2</v>
       </c>
@@ -10649,8 +10666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D7369-9803-495E-AE43-079FF17A57EE}">
   <dimension ref="B3:V208"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TransPowerCalculation/Impedance Cal/Fish and coil Impedance Measure.xlsx
+++ b/TransPowerCalculation/Impedance Cal/Fish and coil Impedance Measure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\WPIWork\MQP\AcousticLink\TransPowerCalculation\Impedance Cal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766D8692-1E52-48BC-A393-16CD952D6A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F24196B-665E-41E3-B9EB-E74CD0C74B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="3315" windowWidth="24360" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fish Finder Impedance" sheetId="1" r:id="rId1"/>
@@ -304,6 +304,34 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Voltage and Current Phase Shift</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -340,34 +368,32 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.3744345786563915E-2"/>
-          <c:y val="0.11137426900584799"/>
-          <c:w val="0.94067128837156222"/>
-          <c:h val="0.79249965464843208"/>
+          <c:x val="0.12664549537061234"/>
+          <c:y val="0.14748229691428774"/>
+          <c:w val="0.8400777001342532"/>
+          <c:h val="0.77134774457801347"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fish Finder Impedance'!$B$4</c:f>
+              <c:f>'Fish Finder Impedance'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vfish (Prob2-Gnd) Vpp (V)</c:v>
+                  <c:v>Vfish -&gt; Ifish angle (deg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -377,751 +403,9 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Fish Finder Impedance'!$A$5:$A$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>81.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>80.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80.7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>80.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>80.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>80.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>80.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>80.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>79.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>77.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>77.3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>77.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>76.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>76.8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>76.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>76.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>76.3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>76.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>75.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>75.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Fish Finder Impedance'!$B$5:$B$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>3.47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.956</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.77</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1390000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.71</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.21</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.38</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.01</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.2799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.39</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.2100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.07</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.0150000000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.92</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.8789999999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.7889999999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.7619999999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.6970000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.5250000000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.4290000000000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.1029999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.8840000000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.0970000000000004</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.0460000000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1339999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.7679999999999998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.4929999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.41</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.3260000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.2290000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.1854</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.1419999999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.1549999999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.1739999999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.2599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.3929999999999998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.73</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.101</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.7759999999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.3250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.4450000000000003</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.6210000000000004</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7.0629999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F558-414C-A151-081C55CB1687}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Fish Finder Impedance'!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Vr (Prob1-Prob2) Vpp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Fish Finder Impedance'!$A$5:$A$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>81.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>80.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80.7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>80.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>80.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>80.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>80.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>80.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>79.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>77.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>77.3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>77.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>76.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>76.8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>76.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>76.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>76.3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>76.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>75.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>75.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Fish Finder Impedance'!$C$5:$C$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>8.7200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0739999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4109999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.93</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0739999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.9690000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.88</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.53</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.01</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.8899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.79</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.19</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.69</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.708</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.74</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.804</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.8720000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.952</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.044</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.2549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.411</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.8690000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.2170000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.1210000000000004</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.9219999999999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.6210000000000004</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.84</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.0590000000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.141</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.2220000000000004</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.3029999999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.335</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.367</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.4420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.5750000000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.609</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.7009999999999996</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.7720000000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.7720000000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.7279999999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.5979999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.4240000000000004</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.11</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.7690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.391</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F558-414C-A151-081C55CB1687}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Fish Finder Impedance'!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Vfish -&gt; Ifish angle (deg)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -1462,378 +746,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F558-414C-A151-081C55CB1687}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Fish Finder Impedance'!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Current (Vr/R) (A)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Fish Finder Impedance'!$A$5:$A$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>81.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>80.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80.7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>80.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>80.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>80.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>80.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>80.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>79.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>77.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>77.3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>77.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>76.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>76.8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>76.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>76.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>76.3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>76.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>75.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>75.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Fish Finder Impedance'!$D$5:$D$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>8.7200000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9500000000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.150000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0739999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4109999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.9299999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0739999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.9690000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.8799999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.5300000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.0800000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0099999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.8899999999999994E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.79E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.1900000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.8500000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6899999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.7079999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.74E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.804E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.8720000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.952E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.0440000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.2550000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.4109999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.869E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.2170000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.1210000000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.9219999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.6210000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.8399999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.0590000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.1409999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.2220000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.3029999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.3350000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.3670000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.4419999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.5750000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.6090000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.7009999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.7720000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.7720000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.7279999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.5979999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.424E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.11E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.7689999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.391E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F558-414C-A151-081C55CB1687}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1852,6 +764,8 @@
         <c:axId val="1271717600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="70"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1869,6 +783,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Frequency (KHz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1931,6 +903,78 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> and Current </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Phase Difference (deg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1980,37 +1024,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2028,9 +1041,9 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="accent1">
+          <a:lumMod val="50000"/>
+          <a:alpha val="94000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2393,6 +1406,8 @@
         <c:axId val="829371024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="70"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2410,6 +1425,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Frequency (K</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>hz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2428,7 +1512,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2472,6 +1556,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Complex</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Impedance (Ohms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2490,7 +1643,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2580,6 +1733,41 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Complex Impedance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> of Transformer Secondary Side</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2616,10 +1804,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.3161031975725829E-2"/>
+          <c:x val="9.6255952195698852E-2"/>
           <c:y val="0.10066945606694562"/>
-          <c:w val="0.81033635682603333"/>
-          <c:h val="0.83183188921468498"/>
+          <c:w val="0.77344578963202726"/>
+          <c:h val="0.78367422003782194"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3072,6 +2260,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Frequency (KHz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3134,6 +2380,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Complex Impedance (Ohms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3183,37 +2487,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4974,16 +4247,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>598277</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>80359</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>473720</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>349742</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>43939</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>415685</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5186,13 +4459,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>417635</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5622,8 +4895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60:P62"/>
+    <sheetView topLeftCell="C60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5735,15 +5008,15 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M59" si="0">B6/D6</f>
+        <f t="shared" ref="M6:M58" si="0">B6/D6</f>
         <v>540.88050314465409</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N59" si="1">COS(E6/180*3.14159)*M6</f>
+        <f t="shared" ref="N6:N58" si="1">COS(E6/180*3.14159)*M6</f>
         <v>92.993727451003039</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:O59" si="2">SIN(E6/180*3.14159)*M6</f>
+        <f t="shared" ref="O6:O58" si="2">SIN(E6/180*3.14159)*M6</f>
         <v>-532.82631817205004</v>
       </c>
     </row>
@@ -6268,7 +5541,7 @@
         <v>1.69</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:D59" si="4">C23/1000</f>
+        <f t="shared" ref="D23:D58" si="4">C23/1000</f>
         <v>1.6899999999999999E-3</v>
       </c>
       <c r="E23" s="2">
@@ -7372,7 +6645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6929BE9-1CA0-420D-A4B9-C8DAFB72DD26}">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -9181,8 +8454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E194F26-A82F-4BD3-B7A1-F84F0CE9214F}">
   <dimension ref="B9:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10666,7 +9939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D7369-9803-495E-AE43-079FF17A57EE}">
   <dimension ref="B3:V208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
